--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_21_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_21_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>609225.0699498566</v>
+        <v>606786.6799914393</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11772080.76013836</v>
+        <v>11772080.76013835</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.10770370628015</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>203.3460607767422</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>44.45149398001271</v>
       </c>
       <c r="Y2" t="n">
-        <v>165.5843314521386</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>52.02930655048526</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>36.02766158664571</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -874,10 +874,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>375.2733594918304</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>97.32228826427313</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.817218682479</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414546</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,16 +1063,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1108,10 +1108,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>38.06107519393968</v>
+        <v>119.8620943363787</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>275.0428790940308</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>86.00367385394684</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>167.9147108787903</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>26.66925886831028</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1528,13 +1528,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>111.3598553131475</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,10 +1579,10 @@
         <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
-        <v>211.3804576084653</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833703</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>14.19454216862698</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,16 +1819,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238291</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>105.6507867899569</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2087,13 +2087,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986261</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>99.97427419834074</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
-        <v>100.0416311957199</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>22.65115569188789</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>179.831980181936</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699831</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,10 +2767,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>247.2924896597629</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,10 +2950,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699831</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2965,10 +2965,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>116.6320338128955</v>
+        <v>217.405450327287</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,19 +3193,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>39.83255574579442</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,16 +3427,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>22.65115569188789</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>148.0280580960833</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417133</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,19 +3904,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833856</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>210.340261657467</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>4.444394634328834</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1678.62132134232</v>
+        <v>1250.335715170996</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>881.373198230584</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>523.1074996238335</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>523.1074996238335</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>523.1074996238335</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>108.03504946883</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>108.03504946883</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4346,34 +4346,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450755</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2219.343980060106</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>1845.878221799026</v>
+        <v>2027.074887210929</v>
       </c>
       <c r="Y2" t="n">
-        <v>1678.62132134232</v>
+        <v>1636.935555235117</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,43 +4462,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>678.2257657051547</v>
+        <v>249.793641290342</v>
       </c>
       <c r="C4" t="n">
-        <v>678.2257657051547</v>
+        <v>249.793641290342</v>
       </c>
       <c r="D4" t="n">
-        <v>625.6709106036544</v>
+        <v>249.793641290342</v>
       </c>
       <c r="E4" t="n">
-        <v>477.7578170212613</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1416.425065783663</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1416.425065783663</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W4" t="n">
-        <v>1127.007895746702</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="X4" t="n">
-        <v>899.0183448486848</v>
+        <v>652.2346852641118</v>
       </c>
       <c r="Y4" t="n">
-        <v>678.2257657051547</v>
+        <v>431.4421061205817</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1565.440264581602</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C5" t="n">
-        <v>1565.440264581602</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D5" t="n">
-        <v>1207.174565974852</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881545</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810557</v>
@@ -4586,31 +4586,31 @@
         <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3227.300479928088</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3021.322732312311</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>2767.792255586147</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176918</v>
+        <v>2436.729368242576</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906804</v>
+        <v>2083.960712972462</v>
       </c>
       <c r="X5" t="n">
-        <v>1952.040104645724</v>
+        <v>1710.494954711382</v>
       </c>
       <c r="Y5" t="n">
-        <v>1952.040104645724</v>
+        <v>1320.35562273557</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811102</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999832</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387319</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332764</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601614</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927795</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064709</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533343</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297194</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199867</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471665</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266132</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>647.3667606649364</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="C7" t="n">
-        <v>478.4305777370295</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="D7" t="n">
-        <v>478.4305777370295</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K7" t="n">
         <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764917</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760409</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581906</v>
@@ -4741,7 +4741,7 @@
         <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q7" t="n">
         <v>1927.294548088493</v>
@@ -4753,22 +4753,22 @@
         <v>1645.778206672848</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1424.011591242374</v>
       </c>
       <c r="U7" t="n">
-        <v>1385.566060743444</v>
+        <v>1302.938768680375</v>
       </c>
       <c r="V7" t="n">
-        <v>1385.566060743444</v>
+        <v>1048.254280474488</v>
       </c>
       <c r="W7" t="n">
-        <v>1096.148890706484</v>
+        <v>758.8371104375277</v>
       </c>
       <c r="X7" t="n">
-        <v>868.1593398084665</v>
+        <v>530.8475595395104</v>
       </c>
       <c r="Y7" t="n">
-        <v>647.3667606649364</v>
+        <v>310.0549803959803</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1648.004869410819</v>
+        <v>1422.200456328344</v>
       </c>
       <c r="C8" t="n">
-        <v>1648.004869410819</v>
+        <v>1422.200456328344</v>
       </c>
       <c r="D8" t="n">
-        <v>1289.739170804069</v>
+        <v>1063.934757721594</v>
       </c>
       <c r="E8" t="n">
-        <v>903.9509182058246</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F8" t="n">
-        <v>492.965013416217</v>
+        <v>375.1277629380157</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4823,31 +4823,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993395</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.097597267231</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2535.03470992366</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450753</v>
+        <v>2182.266054653546</v>
       </c>
       <c r="X8" t="n">
-        <v>2424.744041450753</v>
+        <v>1808.800296392466</v>
       </c>
       <c r="Y8" t="n">
-        <v>2034.604709474941</v>
+        <v>1808.800296392466</v>
       </c>
     </row>
     <row r="9">
@@ -4857,34 +4857,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064541</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
         <v>765.1517452158131</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>679.6952191369613</v>
+        <v>533.4780323548192</v>
       </c>
       <c r="C10" t="n">
-        <v>510.7590362090544</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="D10" t="n">
-        <v>360.6423967967187</v>
+        <v>214.4252100145766</v>
       </c>
       <c r="E10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1667.853271776536</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1378.750404902179</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>1378.750404902179</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W10" t="n">
-        <v>1089.333234865218</v>
+        <v>943.1160480830763</v>
       </c>
       <c r="X10" t="n">
-        <v>861.3436839672011</v>
+        <v>715.126497185059</v>
       </c>
       <c r="Y10" t="n">
-        <v>861.3436839672011</v>
+        <v>715.126497185059</v>
       </c>
     </row>
     <row r="11">
@@ -5039,10 +5039,10 @@
         <v>92.81162322608054</v>
       </c>
       <c r="J11" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251944</v>
       </c>
       <c r="K11" t="n">
-        <v>841.9378825128758</v>
+        <v>841.9378825128765</v>
       </c>
       <c r="L11" t="n">
         <v>1461.457663018651</v>
@@ -5054,7 +5054,7 @@
         <v>2919.747202874795</v>
       </c>
       <c r="O11" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P11" t="n">
         <v>4150.915188021281</v>
@@ -5118,28 +5118,28 @@
         <v>92.81162322608054</v>
       </c>
       <c r="J12" t="n">
-        <v>240.4596049779265</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="K12" t="n">
-        <v>570.9683475412853</v>
+        <v>423.3203657894393</v>
       </c>
       <c r="L12" t="n">
-        <v>1061.700680385037</v>
+        <v>914.0526986331906</v>
       </c>
       <c r="M12" t="n">
-        <v>1586.31563634397</v>
+        <v>1506.071052885318</v>
       </c>
       <c r="N12" t="n">
-        <v>1586.31563634397</v>
+        <v>1506.071052885318</v>
       </c>
       <c r="O12" t="n">
-        <v>2133.192111344164</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P12" t="n">
-        <v>2552.77562977024</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q12" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R12" t="n">
         <v>2552.77562977024</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>789.2983722470398</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="C13" t="n">
-        <v>620.3621893191329</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="D13" t="n">
-        <v>470.2455499067971</v>
+        <v>381.5742876855605</v>
       </c>
       <c r="E13" t="n">
-        <v>322.332456324404</v>
+        <v>381.5742876855605</v>
       </c>
       <c r="F13" t="n">
-        <v>175.4425088264937</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="G13" t="n">
-        <v>175.4425088264937</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="H13" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I13" t="n">
         <v>92.81162322608054</v>
@@ -5227,22 +5227,22 @@
         <v>2177.346239107599</v>
       </c>
       <c r="T13" t="n">
-        <v>1963.830625361674</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U13" t="n">
-        <v>1963.830625361674</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V13" t="n">
-        <v>1709.146137155788</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W13" t="n">
-        <v>1419.728967118827</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X13" t="n">
-        <v>1191.73941622081</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y13" t="n">
-        <v>970.9468370772795</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="14">
@@ -5276,22 +5276,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>562.8579153358621</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1030.918378293891</v>
+        <v>513.8536007400701</v>
       </c>
       <c r="C16" t="n">
-        <v>861.9821953659846</v>
+        <v>344.9174178121632</v>
       </c>
       <c r="D16" t="n">
-        <v>711.8655559536488</v>
+        <v>194.8007783998275</v>
       </c>
       <c r="E16" t="n">
-        <v>563.9524623712557</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>417.0625148733453</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>249.8664155882253</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>108.1545844304234</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X16" t="n">
-        <v>1433.359422267661</v>
+        <v>916.2946447138399</v>
       </c>
       <c r="Y16" t="n">
-        <v>1212.566843124131</v>
+        <v>695.5020655703098</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,28 +5510,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5729,70 +5729,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245697</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403286</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C22" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121669</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253734</v>
+        <v>194.8007783998312</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998312</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038327</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797728</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580259</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>2345.91093085731</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2126.309465880251</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>2126.309465880251</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1354.218256739386</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y22" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,28 +5975,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
@@ -6005,31 +6005,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6218,52 +6218,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
         <v>3094.515198591809</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M27" t="n">
         <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1794.716390662386</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,61 +6449,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>615.644930552589</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C31" t="n">
-        <v>615.644930552589</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="D31" t="n">
-        <v>465.5282911402533</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2079.252410323026</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U31" t="n">
-        <v>1790.177183667224</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V31" t="n">
-        <v>1535.492695461337</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W31" t="n">
-        <v>1246.075525424376</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X31" t="n">
-        <v>1018.085974526359</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y31" t="n">
-        <v>797.2933953828287</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="32">
@@ -6689,37 +6689,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>915.1035305473698</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>746.1673476194629</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>596.0507082071272</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E34" t="n">
-        <v>448.1376146247341</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F34" t="n">
-        <v>301.2476671268237</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>134.0515678417036</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>134.0515678417036</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362687</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>194.8007783998286</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
         <v>93.81666304797187</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7160,34 +7160,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642674</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,31 +7482,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>372.4964262156759</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>867.8220324314346</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>810.0653816078141</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>641.1291986799072</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>491.0125592675714</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E43" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1984.597634722449</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1729.913146516562</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1440.495976479601</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1212.506425581584</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>991.7138464380538</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7731,22 +7731,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>961.4446166151475</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>792.5084336872407</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>642.3917942749049</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>494.4787006925118</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F46" t="n">
-        <v>347.5887531946014</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>180.3926539094813</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1363.885660588917</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>1143.093081445387</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-1.612932010175427e-12</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22556,7 +22556,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22565,7 +22565,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4692260666458318</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>220.653607203915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22705,19 +22705,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>110.4063010599235</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>37.25561770506482</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,10 +23467,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>6.101536854296455</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>46.45968844823214</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>67.07129414993948</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23938,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>111.7546635373313</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459051</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>80.98465480592473</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24218,7 +24218,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-3.513749910243533e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>144.59566540674</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24506,7 +24506,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>46.45968844822922</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,10 +24655,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>38.89198472948121</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,10 +24838,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>46.45968844822922</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>100.7734165143927</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>45.44677382459264</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>41.43328057277111</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>65.54986409393069</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>144.59566540674</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>46.45968844823061</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,10 +25837,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>75.84421273177711</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>43.26526345294945</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>135.8503182118951</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>951497.87639107</v>
+        <v>951497.8763910694</v>
       </c>
     </row>
     <row r="3">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1021742.072877767</v>
+        <v>1021742.072877766</v>
       </c>
     </row>
     <row r="8">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>375475.6212503244</v>
+        <v>375475.6212503241</v>
       </c>
       <c r="C2" t="n">
-        <v>410520.8849321417</v>
+        <v>410520.8849321415</v>
       </c>
       <c r="D2" t="n">
-        <v>410520.8849321414</v>
+        <v>410520.8849321415</v>
       </c>
       <c r="E2" t="n">
         <v>401339.8858190153</v>
       </c>
       <c r="F2" t="n">
-        <v>403573.299845003</v>
+        <v>403573.2998450029</v>
       </c>
       <c r="G2" t="n">
         <v>403573.2998450031</v>
       </c>
       <c r="H2" t="n">
-        <v>403573.2998450032</v>
+        <v>403573.2998450029</v>
       </c>
       <c r="I2" t="n">
         <v>403573.2998450031</v>
@@ -26338,13 +26338,13 @@
         <v>403573.2998450029</v>
       </c>
       <c r="K2" t="n">
-        <v>403573.2998450032</v>
+        <v>403573.299845003</v>
       </c>
       <c r="L2" t="n">
-        <v>403573.299845003</v>
+        <v>403573.2998450029</v>
       </c>
       <c r="M2" t="n">
-        <v>403573.2998450032</v>
+        <v>403573.2998450031</v>
       </c>
       <c r="N2" t="n">
         <v>403573.2998450031</v>
@@ -26353,7 +26353,7 @@
         <v>403573.2998450031</v>
       </c>
       <c r="P2" t="n">
-        <v>403573.2998450032</v>
+        <v>403573.2998450031</v>
       </c>
     </row>
     <row r="3">
@@ -26363,25 +26363,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>7.680563094254467e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>313680.0588189856</v>
+        <v>313680.0588189855</v>
       </c>
       <c r="F3" t="n">
-        <v>11452.26311504134</v>
+        <v>11452.26311504116</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.482032298052218e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.170374162029475e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>81924.27863832927</v>
+        <v>81924.27863832914</v>
       </c>
       <c r="N3" t="n">
         <v>3077.01735570473</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.094354047381785e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52788.47755482062</v>
+        <v>52788.47755482049</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319398</v>
+        <v>92793.84288319391</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319405</v>
+        <v>92793.84288319397</v>
       </c>
       <c r="E4" t="n">
         <v>13600.27549061739</v>
       </c>
       <c r="F4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="G4" t="n">
         <v>13606.80811184275</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>13606.80811184274</v>
-      </c>
-      <c r="H4" t="n">
-        <v>13606.80811184275</v>
       </c>
       <c r="I4" t="n">
         <v>13606.80811184274</v>
@@ -26448,13 +26448,13 @@
         <v>13606.80811184275</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="N4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184266</v>
       </c>
       <c r="P4" t="n">
         <v>13606.80811184275</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1113991.542593482</v>
+        <v>-1114166.768911891</v>
       </c>
       <c r="C6" t="n">
-        <v>209793.1014875544</v>
+        <v>209793.1014875535</v>
       </c>
       <c r="D6" t="n">
-        <v>209793.1014875542</v>
+        <v>209793.1014875546</v>
       </c>
       <c r="E6" t="n">
-        <v>-26082.57700442619</v>
+        <v>-26128.48199999164</v>
       </c>
       <c r="F6" t="n">
-        <v>277391.6987942118</v>
+        <v>277356.9608687763</v>
       </c>
       <c r="G6" t="n">
-        <v>288843.9619092534</v>
+        <v>288809.2239838176</v>
       </c>
       <c r="H6" t="n">
-        <v>288843.9619092533</v>
+        <v>288809.223983817</v>
       </c>
       <c r="I6" t="n">
-        <v>288843.9619092532</v>
+        <v>288809.2239838177</v>
       </c>
       <c r="J6" t="n">
-        <v>71312.7595119756</v>
+        <v>71278.02158653991</v>
       </c>
       <c r="K6" t="n">
-        <v>288843.9619092533</v>
+        <v>288809.2239838173</v>
       </c>
       <c r="L6" t="n">
-        <v>288843.9619092533</v>
+        <v>288809.2239838174</v>
       </c>
       <c r="M6" t="n">
-        <v>206919.6832709241</v>
+        <v>206884.9453454884</v>
       </c>
       <c r="N6" t="n">
-        <v>285766.9445535485</v>
+        <v>285732.2066281128</v>
       </c>
       <c r="O6" t="n">
-        <v>288843.9619092532</v>
+        <v>288809.2239838174</v>
       </c>
       <c r="P6" t="n">
-        <v>288843.9619092533</v>
+        <v>288809.2239838176</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593299</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
         <v>1160.145290326007</v>
@@ -26805,16 +26805,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26969,13 +26969,13 @@
         <v>268.2643481230875</v>
       </c>
       <c r="F3" t="n">
-        <v>9.934451625288148</v>
+        <v>9.93445162528792</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>328.7438349237142</v>
+        <v>328.7438349237136</v>
       </c>
       <c r="F4" t="n">
         <v>12.56299777364165</v>
@@ -27033,22 +27033,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>328.7438349237142</v>
+        <v>328.7438349237136</v>
       </c>
       <c r="N4" t="n">
         <v>12.56299777364165</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>328.7438349237142</v>
+        <v>328.7438349237136</v>
       </c>
       <c r="N4" t="n">
         <v>12.56299777364165</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>145.8949079406708</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>325.2796066984563</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>96.5861664677271</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,10 +27594,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>6.657010580431347</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>11.86547352390266</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,13 +27783,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27828,10 +27828,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>248.1507630116732</v>
+        <v>166.3497438692342</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>106.887490978231</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>324.9180517995066</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28026,7 +28026,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>51.63423839737891</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>259.8537394682807</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28503,7 +28503,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28542,7 +28542,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>-1.131184035330079e-12</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -28807,13 +28807,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-5.115907697472721e-13</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28959,7 +28959,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1.696776052995119e-12</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29430,7 +29430,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -29515,7 +29515,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29721,7 +29721,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,10 +31276,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I5" t="n">
         <v>168.89895979748</v>
@@ -31288,31 +31288,31 @@
         <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R5" t="n">
         <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T5" t="n">
         <v>19.17787942451121</v>
@@ -31361,43 +31361,43 @@
         <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J6" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,19 +31440,19 @@
         <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K7" t="n">
         <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N7" t="n">
         <v>300.7247737883116</v>
@@ -31467,13 +31467,13 @@
         <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S7" t="n">
         <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31604,7 +31604,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
         <v>508.9565619138796</v>
@@ -31838,7 +31838,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>471.6886536848224</v>
@@ -31847,22 +31847,22 @@
         <v>634.2436048745725</v>
       </c>
       <c r="M12" t="n">
-        <v>672.0481308502335</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>694.9967242426205</v>
+        <v>507.4786487269579</v>
       </c>
       <c r="P12" t="n">
         <v>557.7961431982454</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S12" t="n">
         <v>54.25758340862161</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>460.4622569139909</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>616.9033572954392</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,13 +32309,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,19 +32324,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,31 +32540,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305184</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>232.153703594058</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33029,34 +33029,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>526.2989357561996</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>291.8940795642898</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>590.4022545401851</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,13 +33488,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
@@ -33503,34 +33503,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>290.1088399635148</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>396.9700886943664</v>
       </c>
       <c r="N36" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>729.0844763571693</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>266.3926848685833</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34448,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>272.756932936465</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>465.7451325200306</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,28 +34936,28 @@
         <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L6" t="n">
         <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701982</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
         <v>370.4021821340054</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>333.8472147104634</v>
@@ -35495,22 +35495,22 @@
         <v>495.6892250946983</v>
       </c>
       <c r="M12" t="n">
-        <v>529.9140969282151</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>552.4004797981761</v>
+        <v>364.8824042825134</v>
       </c>
       <c r="P12" t="n">
         <v>423.8217357839152</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>322.6208179396319</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>485.5616452121058</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,19 +35972,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561594</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096333</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>90.01966967203964</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>394.9572236728663</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>151.9123054782682</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,31 +36905,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>451.8478747603109</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>254.8360547723481</v>
       </c>
       <c r="N36" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>586.9504424351509</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>128.5512458942243</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>134.2025531565909</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
